--- a/Project 2/Documents/OctaveDocuments/SmootherOutput/output3SaltedSmoothenedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SmootherOutput/output3SaltedSmoothenedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SmootherOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A98161-1715-4CAA-A90A-B5A10A1CBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC5593-3D27-41EC-90BE-DD4568FD7BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{C49190ED-5C1F-44BB-B17F-706488A0B00F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{99BCA4A4-95BF-4DA6-9766-ACA9B2C8F55F}"/>
   </bookViews>
   <sheets>
     <sheet name="output3SaltedSmoothened" sheetId="1" r:id="rId1"/>
@@ -593,13 +593,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Smoothened Output (Window</a:t>
+              <a:t>Smoothened Output (Window Value: 10)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Value: 10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -979,304 +974,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2268.9090909090901</c:v>
+                  <c:v>1018.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1888.6590909090901</c:v>
+                  <c:v>624.85714285714198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1880.96678321678</c:v>
+                  <c:v>910.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1408.10964035964</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1108.5096403596399</c:v>
+                  <c:v>1009.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1348.3846403596399</c:v>
+                  <c:v>389.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1522.6199344772799</c:v>
+                  <c:v>392.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1547.50882336617</c:v>
+                  <c:v>-89.099999999999895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1377.45619178722</c:v>
+                  <c:v>104.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1062.65619178722</c:v>
+                  <c:v>359.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1286.3228584538899</c:v>
+                  <c:v>677.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1447.6758950036401</c:v>
+                  <c:v>934.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1923.77193329386</c:v>
+                  <c:v>1106.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2031.71503567848</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2165.6010068841401</c:v>
+                  <c:v>1336.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2188.2720243376898</c:v>
+                  <c:v>1502.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2426.8857092890298</c:v>
+                  <c:v>1604.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2600.9459842800602</c:v>
+                  <c:v>1840.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2580.4429919426302</c:v>
+                  <c:v>1766.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2899.6328395690798</c:v>
+                  <c:v>1925.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3562.8698227967802</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3625.8006306226398</c:v>
+                  <c:v>1669.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3555.9018085092498</c:v>
+                  <c:v>2068.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3877.2413263766498</c:v>
+                  <c:v>3125.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4527.6949592670398</c:v>
+                  <c:v>3603.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5146.8422903329001</c:v>
+                  <c:v>4079.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5671.6789696659998</c:v>
+                  <c:v>4985.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5928.2881725410898</c:v>
+                  <c:v>5572.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6131.7330386487602</c:v>
+                  <c:v>5874.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6862.9849456347702</c:v>
+                  <c:v>6391.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7590.2874268759897</c:v>
+                  <c:v>6962.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7709.30731278453</c:v>
+                  <c:v>8099.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8569.2362024112808</c:v>
+                  <c:v>8655.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9398.2045068828102</c:v>
+                  <c:v>8229.2999999999902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9809.4408488116696</c:v>
+                  <c:v>8124.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9990.8573197423702</c:v>
+                  <c:v>9247.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10668.000892571399</c:v>
+                  <c:v>10022.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11064.825746043</c:v>
+                  <c:v>10859.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11605.137059066899</c:v>
+                  <c:v>11387.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12131.1562981345</c:v>
+                  <c:v>11840.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12404.5930292059</c:v>
+                  <c:v>12054</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12831.036153126401</c:v>
+                  <c:v>11877.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13376.642288380701</c:v>
+                  <c:v>12347.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13516.9473400936</c:v>
+                  <c:v>13007.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14192.8874750084</c:v>
+                  <c:v>13561.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14536.099219113001</c:v>
+                  <c:v>13516</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15208.444071464</c:v>
+                  <c:v>13988.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15507.417556173101</c:v>
+                  <c:v>14253.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16186.7790709412</c:v>
+                  <c:v>14840.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16583.6667857924</c:v>
+                  <c:v>16378.1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17500.3577613952</c:v>
+                  <c:v>17123.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18376.203701023202</c:v>
+                  <c:v>17766.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19033.735489018301</c:v>
+                  <c:v>18007.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19722.930403334401</c:v>
+                  <c:v>18783.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20758.929596821999</c:v>
+                  <c:v>20159</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21067.312555003598</c:v>
+                  <c:v>21366.2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22109.275094807901</c:v>
+                  <c:v>22368.1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>23071.314667348099</c:v>
+                  <c:v>23524.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24224.690720261198</c:v>
+                  <c:v>24302.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25350.4007988003</c:v>
+                  <c:v>25149.9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>26292.388132753</c:v>
+                  <c:v>26626.7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27239.2943409129</c:v>
+                  <c:v>27629.3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>27979.774847574401</c:v>
+                  <c:v>28815</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28904.871959886499</c:v>
+                  <c:v>30485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30128.2977482938</c:v>
+                  <c:v>31180</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>30872.267660268601</c:v>
+                  <c:v>32271.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>32006.884570043199</c:v>
+                  <c:v>32291.1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>32773.104068863897</c:v>
+                  <c:v>33304.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>33464.665468936102</c:v>
+                  <c:v>35036.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>34436.473790301498</c:v>
+                  <c:v>35749.9</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35483.715361325398</c:v>
+                  <c:v>36662.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>36432.492848400303</c:v>
+                  <c:v>38300.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37295.311824947297</c:v>
+                  <c:v>38992.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>38351.7183476793</c:v>
+                  <c:v>39433.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>39403.901509002797</c:v>
+                  <c:v>40434.1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40407.787402369897</c:v>
+                  <c:v>40759.4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>41763.812151993799</c:v>
+                  <c:v>42027.3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42842.522989229503</c:v>
+                  <c:v>42697.7</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43949.1619854374</c:v>
+                  <c:v>43632.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45209.138010032701</c:v>
+                  <c:v>44672.6</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46331.026782400797</c:v>
+                  <c:v>45522.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>47139.946373880601</c:v>
+                  <c:v>46561.7</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>48544.063208427302</c:v>
+                  <c:v>48141.9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>49861.575179069201</c:v>
+                  <c:v>49382.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51234.425504373503</c:v>
+                  <c:v>50811.8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>52531.4980755816</c:v>
+                  <c:v>52734.7</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53767.865250496499</c:v>
+                  <c:v>53764.7</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>55075.010636139501</c:v>
+                  <c:v>54765.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>56632.700524087602</c:v>
+                  <c:v>55635</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57837.011883070903</c:v>
+                  <c:v>57207.3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>58636.206170876299</c:v>
+                  <c:v>58885.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>59115.331726631703</c:v>
+                  <c:v>60162</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>59969.982675486302</c:v>
+                  <c:v>61464.1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>60495.800448577203</c:v>
+                  <c:v>63126.9</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>60863.364555957603</c:v>
+                  <c:v>64426.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>61255.718129793699</c:v>
+                  <c:v>64848.888888888803</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>61446.6422857941</c:v>
+                  <c:v>66150.375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>61607.443772031897</c:v>
+                  <c:v>67694.142857142797</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>61335.266847692299</c:v>
+                  <c:v>68999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>60729.615317810203</c:v>
+                  <c:v>69419.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD64-4651-96E4-78834F73238C}"/>
+              <c16:uniqueId val="{00000000-FAD9-45D9-92C5-0026228C12B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371177120"/>
-        <c:axId val="371177600"/>
+        <c:axId val="1041742576"/>
+        <c:axId val="1511642544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371177120"/>
+        <c:axId val="1041742576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371177600"/>
+        <c:crossAx val="1511642544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371177600"/>
+        <c:axId val="1511642544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371177120"/>
+        <c:crossAx val="1041742576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,22 +2134,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B003485-E0B0-4B50-4DCD-51C5340A21D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCF25A1-C5CD-966C-489B-7309E4DFCCE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,11 +2486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A955A2-6C75-4939-88E9-7C0097F093CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DF400-E608-473B-B0AA-D4189CE7E53C}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2268.9090909090901</v>
+        <v>1018.66666666666</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1888.6590909090901</v>
+        <v>624.85714285714198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1880.96678321678</v>
+        <v>910.375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1408.10964035964</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1108.5096403596399</v>
+        <v>1009.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1348.3846403596399</v>
+        <v>389.4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1522.6199344772799</v>
+        <v>392.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1547.50882336617</v>
+        <v>-89.099999999999895</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1377.45619178722</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1062.65619178722</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1286.3228584538899</v>
+        <v>677.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1447.6758950036401</v>
+        <v>934.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1923.77193329386</v>
+        <v>1106.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2031.71503567848</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2165.6010068841401</v>
+        <v>1336.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2188.2720243376898</v>
+        <v>1502.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2426.8857092890298</v>
+        <v>1604.9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2600.9459842800602</v>
+        <v>1840.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2580.4429919426302</v>
+        <v>1766.3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2899.6328395690798</v>
+        <v>1925.2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3562.8698227967802</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2668,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3625.8006306226398</v>
+        <v>1669.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3555.9018085092498</v>
+        <v>2068.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3877.2413263766498</v>
+        <v>3125.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4527.6949592670398</v>
+        <v>3603.3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5146.8422903329001</v>
+        <v>4079.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5671.6789696659998</v>
+        <v>4985.8999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5928.2881725410898</v>
+        <v>5572.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6131.7330386487602</v>
+        <v>5874.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6862.9849456347702</v>
+        <v>6391.8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7590.2874268759897</v>
+        <v>6962.1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7709.30731278453</v>
+        <v>8099.4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8569.2362024112808</v>
+        <v>8655.7000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2764,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>9398.2045068828102</v>
+        <v>8229.2999999999902</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>9809.4408488116696</v>
+        <v>8124.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9990.8573197423702</v>
+        <v>9247.1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>10668.000892571399</v>
+        <v>10022.799999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>11064.825746043</v>
+        <v>10859.9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>11605.137059066899</v>
+        <v>11387.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>12131.1562981345</v>
+        <v>11840.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>12404.5930292059</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>12831.036153126401</v>
+        <v>11877.3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>13376.642288380701</v>
+        <v>12347.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2844,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>13516.9473400936</v>
+        <v>13007.1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>14192.8874750084</v>
+        <v>13561.4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2860,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>14536.099219113001</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>15208.444071464</v>
+        <v>13988.6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>15507.417556173101</v>
+        <v>14253.6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2884,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>16186.7790709412</v>
+        <v>14840.6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2892,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>16583.6667857924</v>
+        <v>16378.1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>17500.3577613952</v>
+        <v>17123.400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>18376.203701023202</v>
+        <v>17766.400000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>19033.735489018301</v>
+        <v>18007.900000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2924,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>19722.930403334401</v>
+        <v>18783.2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2932,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>20758.929596821999</v>
+        <v>20159</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>21067.312555003598</v>
+        <v>21366.2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>22109.275094807901</v>
+        <v>22368.1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2956,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>23071.314667348099</v>
+        <v>23524.799999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>24224.690720261198</v>
+        <v>24302.799999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2972,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>25350.4007988003</v>
+        <v>25149.9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>26292.388132753</v>
+        <v>26626.7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>27239.2943409129</v>
+        <v>27629.3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +2996,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>27979.774847574401</v>
+        <v>28815</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3004,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>28904.871959886499</v>
+        <v>30485</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3012,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>30128.2977482938</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>30872.267660268601</v>
+        <v>32271.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3028,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>32006.884570043199</v>
+        <v>32291.1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>32773.104068863897</v>
+        <v>33304.400000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>33464.665468936102</v>
+        <v>35036.5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3052,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>34436.473790301498</v>
+        <v>35749.9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>35483.715361325398</v>
+        <v>36662.400000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3068,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>36432.492848400303</v>
+        <v>38300.199999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3076,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>37295.311824947297</v>
+        <v>38992.300000000003</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>38351.7183476793</v>
+        <v>39433.300000000003</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3092,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>39403.901509002797</v>
+        <v>40434.1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>40407.787402369897</v>
+        <v>40759.4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>41763.812151993799</v>
+        <v>42027.3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>42842.522989229503</v>
+        <v>42697.7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>43949.1619854374</v>
+        <v>43632.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>45209.138010032701</v>
+        <v>44672.6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>46331.026782400797</v>
+        <v>45522.400000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3148,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>47139.946373880601</v>
+        <v>46561.7</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>48544.063208427302</v>
+        <v>48141.9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3164,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>49861.575179069201</v>
+        <v>49382.5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>51234.425504373503</v>
+        <v>50811.8</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>52531.4980755816</v>
+        <v>52734.7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3188,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>53767.865250496499</v>
+        <v>53764.7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3196,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>55075.010636139501</v>
+        <v>54765.4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>56632.700524087602</v>
+        <v>55635</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3212,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>57837.011883070903</v>
+        <v>57207.3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>58636.206170876299</v>
+        <v>58885.5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>59115.331726631703</v>
+        <v>60162</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>59969.982675486302</v>
+        <v>61464.1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>60495.800448577203</v>
+        <v>63126.9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>60863.364555957603</v>
+        <v>64426.5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>61255.718129793699</v>
+        <v>64848.888888888803</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3268,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>61446.6422857941</v>
+        <v>66150.375</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>61607.443772031897</v>
+        <v>67694.142857142797</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>61335.266847692299</v>
+        <v>68999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>60729.615317810203</v>
+        <v>69419.8</v>
       </c>
     </row>
   </sheetData>
